--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/95/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/95/FD_Curve.xlsx
@@ -466,1099 +466,1099 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7880090000000001</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>788.009</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620039</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.08852</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1088.52</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929937</v>
+        <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.19708</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.08</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.26712</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1267.12</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154996</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>1.28429</v>
+        <v>5.26887</v>
       </c>
       <c r="C7" t="n">
-        <v>1284.29</v>
+        <v>5268.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185967</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2892</v>
+        <v>5.567460000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>1289.2</v>
+        <v>5567.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216944</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>1.29506</v>
+        <v>5.759840000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>1295.06</v>
+        <v>5759.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.24792</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>1.29934</v>
+        <v>5.881930000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>1299.34</v>
+        <v>5881.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278849</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>1.30285</v>
+        <v>5.962350000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>1302.85</v>
+        <v>5962.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309774</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>1.30595</v>
+        <v>6.007569999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1305.95</v>
+        <v>6007.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>1.30866</v>
+        <v>6.02616</v>
       </c>
       <c r="C13" t="n">
-        <v>1308.66</v>
+        <v>6026.16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>1.31109</v>
+        <v>6.02629</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.09</v>
+        <v>6026.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.31321</v>
+        <v>6.0199</v>
       </c>
       <c r="C15" t="n">
-        <v>1313.21</v>
+        <v>6019.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>1.31508</v>
+        <v>6.00863</v>
       </c>
       <c r="C16" t="n">
-        <v>1315.08</v>
+        <v>6008.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>1.31671</v>
+        <v>5.994689999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.71</v>
+        <v>5994.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>1.31814</v>
+        <v>5.97916</v>
       </c>
       <c r="C18" t="n">
-        <v>1318.14</v>
+        <v>5979.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>1.31939</v>
+        <v>5.96201</v>
       </c>
       <c r="C19" t="n">
-        <v>1319.39</v>
+        <v>5962.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>1.32047</v>
+        <v>5.94373</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.47</v>
+        <v>5943.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>1.32138</v>
+        <v>5.92401</v>
       </c>
       <c r="C21" t="n">
-        <v>1321.38</v>
+        <v>5924.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>1.32215</v>
+        <v>5.90305</v>
       </c>
       <c r="C22" t="n">
-        <v>1322.15</v>
+        <v>5903.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>1.32278</v>
+        <v>5.88083</v>
       </c>
       <c r="C23" t="n">
-        <v>1322.78</v>
+        <v>5880.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681487</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>1.32326</v>
+        <v>5.857520000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>1323.26</v>
+        <v>5857.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712664</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>1.32361</v>
+        <v>5.83293</v>
       </c>
       <c r="C25" t="n">
-        <v>1323.61</v>
+        <v>5832.93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>1.32382</v>
+        <v>5.80749</v>
       </c>
       <c r="C26" t="n">
-        <v>1323.82</v>
+        <v>5807.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>1.32392</v>
+        <v>5.78097</v>
       </c>
       <c r="C27" t="n">
-        <v>1323.92</v>
+        <v>5780.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806186</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>1.3239</v>
+        <v>5.75292</v>
       </c>
       <c r="C28" t="n">
-        <v>1323.9</v>
+        <v>5752.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>1.32377</v>
+        <v>5.72367</v>
       </c>
       <c r="C29" t="n">
-        <v>1323.77</v>
+        <v>5723.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>1.32353</v>
+        <v>5.69268</v>
       </c>
       <c r="C30" t="n">
-        <v>1323.53</v>
+        <v>5692.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899695</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>1.32319</v>
+        <v>5.66061</v>
       </c>
       <c r="C31" t="n">
-        <v>1323.19</v>
+        <v>5660.61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930661</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>1.32273</v>
+        <v>5.62652</v>
       </c>
       <c r="C32" t="n">
-        <v>1322.73</v>
+        <v>5626.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.961632</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>1.32219</v>
+        <v>5.59063</v>
       </c>
       <c r="C33" t="n">
-        <v>1322.19</v>
+        <v>5590.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.992509</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>1.32156</v>
+        <v>5.55254</v>
       </c>
       <c r="C34" t="n">
-        <v>1321.56</v>
+        <v>5552.54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02338</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>1.32081</v>
+        <v>5.51146</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.81</v>
+        <v>5511.46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05433</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>1.31998</v>
+        <v>5.46804</v>
       </c>
       <c r="C36" t="n">
-        <v>1319.98</v>
+        <v>5468.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08539</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>1.31904</v>
+        <v>5.42167</v>
       </c>
       <c r="C37" t="n">
-        <v>1319.04</v>
+        <v>5421.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11644</v>
+        <v>1.11858</v>
       </c>
       <c r="B38" t="n">
-        <v>1.31801</v>
+        <v>5.372800000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1318.01</v>
+        <v>5372.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1475</v>
+        <v>1.1496</v>
       </c>
       <c r="B39" t="n">
-        <v>1.31689</v>
+        <v>5.32127</v>
       </c>
       <c r="C39" t="n">
-        <v>1316.89</v>
+        <v>5321.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17855</v>
+        <v>1.18056</v>
       </c>
       <c r="B40" t="n">
-        <v>1.31565</v>
+        <v>5.2672</v>
       </c>
       <c r="C40" t="n">
-        <v>1315.65</v>
+        <v>5267.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20961</v>
+        <v>1.21155</v>
       </c>
       <c r="B41" t="n">
-        <v>1.31434</v>
+        <v>5.210319999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>1314.34</v>
+        <v>5210.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24115</v>
+        <v>1.24257</v>
       </c>
       <c r="B42" t="n">
-        <v>1.31291</v>
+        <v>5.1507</v>
       </c>
       <c r="C42" t="n">
-        <v>1312.91</v>
+        <v>5150.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27272</v>
+        <v>1.27357</v>
       </c>
       <c r="B43" t="n">
-        <v>1.31138</v>
+        <v>5.08861</v>
       </c>
       <c r="C43" t="n">
-        <v>1311.38</v>
+        <v>5088.61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30408</v>
+        <v>1.30453</v>
       </c>
       <c r="B44" t="n">
-        <v>1.30975</v>
+        <v>5.02408</v>
       </c>
       <c r="C44" t="n">
-        <v>1309.75</v>
+        <v>5024.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33523</v>
+        <v>1.33557</v>
       </c>
       <c r="B45" t="n">
-        <v>1.30803</v>
+        <v>4.95715</v>
       </c>
       <c r="C45" t="n">
-        <v>1308.03</v>
+        <v>4957.15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36638</v>
+        <v>1.36652</v>
       </c>
       <c r="B46" t="n">
-        <v>1.30621</v>
+        <v>4.88837</v>
       </c>
       <c r="C46" t="n">
-        <v>1306.21</v>
+        <v>4888.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39752</v>
+        <v>1.39762</v>
       </c>
       <c r="B47" t="n">
-        <v>1.30428</v>
+        <v>4.8173</v>
       </c>
       <c r="C47" t="n">
-        <v>1304.28</v>
+        <v>4817.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42867</v>
+        <v>1.42847</v>
       </c>
       <c r="B48" t="n">
-        <v>1.30225</v>
+        <v>4.74486</v>
       </c>
       <c r="C48" t="n">
-        <v>1302.25</v>
+        <v>4744.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45981</v>
+        <v>1.45961</v>
       </c>
       <c r="B49" t="n">
-        <v>1.3001</v>
+        <v>4.67042</v>
       </c>
       <c r="C49" t="n">
-        <v>1300.1</v>
+        <v>4670.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49096</v>
+        <v>1.49048</v>
       </c>
       <c r="B50" t="n">
-        <v>1.29782</v>
+        <v>4.59539</v>
       </c>
       <c r="C50" t="n">
-        <v>1297.82</v>
+        <v>4595.39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52211</v>
+        <v>1.52166</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2954</v>
+        <v>4.518800000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>1295.4</v>
+        <v>4518.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55302</v>
+        <v>1.55249</v>
       </c>
       <c r="B52" t="n">
-        <v>1.29281</v>
+        <v>4.44212</v>
       </c>
       <c r="C52" t="n">
-        <v>1292.81</v>
+        <v>4442.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58375</v>
+        <v>1.5836</v>
       </c>
       <c r="B53" t="n">
-        <v>1.2901</v>
+        <v>4.36443</v>
       </c>
       <c r="C53" t="n">
-        <v>1290.1</v>
+        <v>4364.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61447</v>
+        <v>1.61453</v>
       </c>
       <c r="B54" t="n">
-        <v>1.28726</v>
+        <v>4.28707</v>
       </c>
       <c r="C54" t="n">
-        <v>1287.26</v>
+        <v>4287.07</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64519</v>
+        <v>1.64555</v>
       </c>
       <c r="B55" t="n">
-        <v>1.28431</v>
+        <v>4.20997</v>
       </c>
       <c r="C55" t="n">
-        <v>1284.31</v>
+        <v>4209.97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6759</v>
+        <v>1.67662</v>
       </c>
       <c r="B56" t="n">
-        <v>1.28123</v>
+        <v>4.133430000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>1281.23</v>
+        <v>4133.43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70663</v>
+        <v>1.7074</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27799</v>
+        <v>4.05837</v>
       </c>
       <c r="C57" t="n">
-        <v>1277.99</v>
+        <v>4058.37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73735</v>
+        <v>1.73868</v>
       </c>
       <c r="B58" t="n">
-        <v>1.27462</v>
+        <v>3.98308</v>
       </c>
       <c r="C58" t="n">
-        <v>1274.62</v>
+        <v>3983.08</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76806</v>
+        <v>1.76936</v>
       </c>
       <c r="B59" t="n">
-        <v>1.27109</v>
+        <v>3.91041</v>
       </c>
       <c r="C59" t="n">
-        <v>1271.09</v>
+        <v>3910.41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79879</v>
+        <v>1.80062</v>
       </c>
       <c r="B60" t="n">
-        <v>1.26741</v>
+        <v>3.83755</v>
       </c>
       <c r="C60" t="n">
-        <v>1267.41</v>
+        <v>3837.55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82951</v>
+        <v>1.83161</v>
       </c>
       <c r="B61" t="n">
-        <v>1.26354</v>
+        <v>3.76681</v>
       </c>
       <c r="C61" t="n">
-        <v>1263.54</v>
+        <v>3766.81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86023</v>
+        <v>1.86229</v>
       </c>
       <c r="B62" t="n">
-        <v>1.25946</v>
+        <v>3.69845</v>
       </c>
       <c r="C62" t="n">
-        <v>1259.46</v>
+        <v>3698.45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89094</v>
+        <v>1.89371</v>
       </c>
       <c r="B63" t="n">
-        <v>1.25514</v>
+        <v>3.6303</v>
       </c>
       <c r="C63" t="n">
-        <v>1255.14</v>
+        <v>3630.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92167</v>
+        <v>1.92456</v>
       </c>
       <c r="B64" t="n">
-        <v>1.25057</v>
+        <v>3.56562</v>
       </c>
       <c r="C64" t="n">
-        <v>1250.57</v>
+        <v>3565.62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95239</v>
+        <v>1.95548</v>
       </c>
       <c r="B65" t="n">
-        <v>1.24579</v>
+        <v>3.5031</v>
       </c>
       <c r="C65" t="n">
-        <v>1245.79</v>
+        <v>3503.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98311</v>
+        <v>1.98677</v>
       </c>
       <c r="B66" t="n">
-        <v>1.24071</v>
+        <v>3.4421</v>
       </c>
       <c r="C66" t="n">
-        <v>1240.71</v>
+        <v>3442.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01384</v>
+        <v>2.01744</v>
       </c>
       <c r="B67" t="n">
-        <v>1.23543</v>
+        <v>3.38436</v>
       </c>
       <c r="C67" t="n">
-        <v>1235.43</v>
+        <v>3384.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04508</v>
+        <v>2.04784</v>
       </c>
       <c r="B68" t="n">
-        <v>1.22974</v>
+        <v>3.32865</v>
       </c>
       <c r="C68" t="n">
-        <v>1229.74</v>
+        <v>3328.65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07597</v>
+        <v>2.07946</v>
       </c>
       <c r="B69" t="n">
-        <v>1.22379</v>
+        <v>3.27416</v>
       </c>
       <c r="C69" t="n">
-        <v>1223.79</v>
+        <v>3274.16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10702</v>
+        <v>2.1104</v>
       </c>
       <c r="B70" t="n">
-        <v>1.21751</v>
+        <v>3.2226</v>
       </c>
       <c r="C70" t="n">
-        <v>1217.51</v>
+        <v>3222.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13811</v>
+        <v>2.14052</v>
       </c>
       <c r="B71" t="n">
-        <v>1.21095</v>
+        <v>3.17366</v>
       </c>
       <c r="C71" t="n">
-        <v>1210.95</v>
+        <v>3173.66</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16898</v>
+        <v>2.17243</v>
       </c>
       <c r="B72" t="n">
-        <v>1.20401</v>
+        <v>3.12458</v>
       </c>
       <c r="C72" t="n">
-        <v>1204.01</v>
+        <v>3124.58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20009</v>
+        <v>2.20353</v>
       </c>
       <c r="B73" t="n">
-        <v>1.19674</v>
+        <v>3.07839</v>
       </c>
       <c r="C73" t="n">
-        <v>1196.74</v>
+        <v>3078.39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23101</v>
+        <v>2.23393</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18914</v>
+        <v>3.03548</v>
       </c>
       <c r="C74" t="n">
-        <v>1189.14</v>
+        <v>3035.48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.262</v>
+        <v>2.26481</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18107</v>
+        <v>2.99407</v>
       </c>
       <c r="C75" t="n">
-        <v>1181.07</v>
+        <v>2994.07</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29312</v>
+        <v>2.29666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.17269</v>
+        <v>2.95429</v>
       </c>
       <c r="C76" t="n">
-        <v>1172.69</v>
+        <v>2954.29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32394</v>
+        <v>2.32619</v>
       </c>
       <c r="B77" t="n">
-        <v>1.16389</v>
+        <v>2.92197</v>
       </c>
       <c r="C77" t="n">
-        <v>1163.89</v>
+        <v>2921.97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35506</v>
+        <v>2.35644</v>
       </c>
       <c r="B78" t="n">
-        <v>1.15466</v>
+        <v>2.88957</v>
       </c>
       <c r="C78" t="n">
-        <v>1154.66</v>
+        <v>2889.57</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.386</v>
+        <v>2.38844</v>
       </c>
       <c r="B79" t="n">
-        <v>1.14517</v>
+        <v>2.85826</v>
       </c>
       <c r="C79" t="n">
-        <v>1145.17</v>
+        <v>2858.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41703</v>
+        <v>2.4194</v>
       </c>
       <c r="B80" t="n">
-        <v>1.13506</v>
+        <v>2.84737</v>
       </c>
       <c r="C80" t="n">
-        <v>1135.06</v>
+        <v>2847.37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44894</v>
+        <v>2.44927</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12438</v>
+        <v>2.84298</v>
       </c>
       <c r="C81" t="n">
-        <v>1124.38</v>
+        <v>2842.98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48036</v>
+        <v>2.47913</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11342</v>
+        <v>2.83387</v>
       </c>
       <c r="C82" t="n">
-        <v>1113.42</v>
+        <v>2833.87</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51112</v>
+        <v>2.509</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10233</v>
+        <v>2.82419</v>
       </c>
       <c r="C83" t="n">
-        <v>1102.33</v>
+        <v>2824.19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54137</v>
+        <v>2.53838</v>
       </c>
       <c r="B84" t="n">
-        <v>1.09118</v>
+        <v>2.81657</v>
       </c>
       <c r="C84" t="n">
-        <v>1091.18</v>
+        <v>2816.57</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57266</v>
+        <v>2.56772</v>
       </c>
       <c r="B85" t="n">
-        <v>1.07922</v>
+        <v>2.8076</v>
       </c>
       <c r="C85" t="n">
-        <v>1079.22</v>
+        <v>2807.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60456</v>
+        <v>2.601</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0669</v>
+        <v>2.79557</v>
       </c>
       <c r="C86" t="n">
-        <v>1066.9</v>
+        <v>2795.57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63528</v>
+        <v>2.63428</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05461</v>
+        <v>2.7843</v>
       </c>
       <c r="C87" t="n">
-        <v>1054.61</v>
+        <v>2784.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66573</v>
+        <v>2.66756</v>
       </c>
       <c r="B88" t="n">
-        <v>1.04231</v>
+        <v>2.77004</v>
       </c>
       <c r="C88" t="n">
-        <v>1042.31</v>
+        <v>2770.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69592</v>
+        <v>2.70084</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02986</v>
+        <v>2.7555</v>
       </c>
       <c r="C89" t="n">
-        <v>1029.86</v>
+        <v>2755.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72825</v>
+        <v>2.73393</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01643</v>
+        <v>2.74114</v>
       </c>
       <c r="C90" t="n">
-        <v>1016.43</v>
+        <v>2741.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75953</v>
+        <v>2.76465</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00321</v>
+        <v>2.73005</v>
       </c>
       <c r="C91" t="n">
-        <v>1003.21</v>
+        <v>2730.05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79045</v>
+        <v>2.79537</v>
       </c>
       <c r="B92" t="n">
-        <v>0.99017</v>
+        <v>2.71568</v>
       </c>
       <c r="C92" t="n">
-        <v>990.17</v>
+        <v>2715.68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82031</v>
+        <v>2.82609</v>
       </c>
       <c r="B93" t="n">
-        <v>0.977283</v>
+        <v>2.70075</v>
       </c>
       <c r="C93" t="n">
-        <v>977.283</v>
+        <v>2700.75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85113</v>
+        <v>2.85681</v>
       </c>
       <c r="B94" t="n">
-        <v>0.964153</v>
+        <v>2.68625</v>
       </c>
       <c r="C94" t="n">
-        <v>964.153</v>
+        <v>2686.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88313</v>
+        <v>2.88753</v>
       </c>
       <c r="B95" t="n">
-        <v>0.950256</v>
+        <v>2.67247</v>
       </c>
       <c r="C95" t="n">
-        <v>950.256</v>
+        <v>2672.47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91513</v>
+        <v>2.91825</v>
       </c>
       <c r="B96" t="n">
-        <v>0.936505</v>
+        <v>2.65915</v>
       </c>
       <c r="C96" t="n">
-        <v>936.505</v>
+        <v>2659.15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94558</v>
+        <v>2.94897</v>
       </c>
       <c r="B97" t="n">
-        <v>0.923181</v>
+        <v>2.64752</v>
       </c>
       <c r="C97" t="n">
-        <v>923.181</v>
+        <v>2647.52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97598</v>
+        <v>2.97807</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9099740000000001</v>
+        <v>2.63493</v>
       </c>
       <c r="C98" t="n">
-        <v>909.974</v>
+        <v>2634.93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00563</v>
+        <v>3.00623</v>
       </c>
       <c r="B99" t="n">
-        <v>0.897415</v>
+        <v>2.6184</v>
       </c>
       <c r="C99" t="n">
-        <v>897.415</v>
+        <v>2618.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03648</v>
+        <v>3.03439</v>
       </c>
       <c r="B100" t="n">
-        <v>0.884026</v>
+        <v>2.60819</v>
       </c>
       <c r="C100" t="n">
-        <v>884.026</v>
+        <v>2608.19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06939</v>
+        <v>3.06255</v>
       </c>
       <c r="B101" t="n">
-        <v>0.870019</v>
+        <v>2.59503</v>
       </c>
       <c r="C101" t="n">
-        <v>870.019</v>
+        <v>2595.03</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10109</v>
+        <v>3.09071</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8565499999999999</v>
+        <v>2.5826</v>
       </c>
       <c r="C102" t="n">
-        <v>856.55</v>
+        <v>2582.6</v>
       </c>
     </row>
   </sheetData>
